--- a/sriramModel-nelson-melancholic-patientID_55-sims-gr-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_55-sims-gr-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.028061364481872</v>
+        <v>2.039107106521735</v>
       </c>
       <c r="C2">
-        <v>2.001621551463835</v>
+        <v>2.025615494525964</v>
       </c>
       <c r="D2">
-        <v>2.005001051841782</v>
+        <v>2.017736813204094</v>
       </c>
       <c r="E2">
-        <v>2.011367663117019</v>
+        <v>2.02689110736511</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.033362284477532</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.056350716449997</v>
+        <v>2.07833064460216</v>
       </c>
       <c r="C3">
-        <v>2.003440803948003</v>
+        <v>2.051084318851118</v>
       </c>
       <c r="D3">
-        <v>2.010127438551836</v>
+        <v>2.035679836948793</v>
       </c>
       <c r="E3">
-        <v>2.022929234684748</v>
+        <v>2.053831493889136</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.066928152113097</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.08484000632859</v>
+        <v>2.11764092950834</v>
       </c>
       <c r="C4">
-        <v>2.005444740055072</v>
+        <v>2.07639368557532</v>
       </c>
       <c r="D4">
-        <v>2.015372682396131</v>
+        <v>2.053823746220103</v>
       </c>
       <c r="E4">
-        <v>2.034685356739549</v>
+        <v>2.080813372414416</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.100680919021015</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.113503215036455</v>
+        <v>2.157010337649672</v>
       </c>
       <c r="C5">
-        <v>2.007621254045296</v>
+        <v>2.101531937293091</v>
       </c>
       <c r="D5">
-        <v>2.020730845802994</v>
+        <v>2.072164238488654</v>
       </c>
       <c r="E5">
-        <v>2.04663717912241</v>
+        <v>2.107829703758959</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.134604960570671</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.142316258167733</v>
+        <v>2.196413114213838</v>
       </c>
       <c r="C6">
-        <v>2.009959100175799</v>
+        <v>2.126488515267738</v>
       </c>
       <c r="D6">
-        <v>2.026196474888061</v>
+        <v>2.090697987935159</v>
       </c>
       <c r="E6">
-        <v>2.058786359415002</v>
+        <v>2.134874241135111</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.168685651631868</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.1712569020639</v>
+        <v>2.235825357982918</v>
       </c>
       <c r="C7">
-        <v>2.012447859166148</v>
+        <v>2.151253879861462</v>
       </c>
       <c r="D7">
-        <v>2.031764616348215</v>
+        <v>2.109422664237936</v>
       </c>
       <c r="E7">
-        <v>2.071135057944519</v>
+        <v>2.161941494348883</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.202909284813217</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.200304687170324</v>
+        <v>2.275224904532926</v>
       </c>
       <c r="C8">
-        <v>2.015077902335078</v>
+        <v>2.175819482737581</v>
       </c>
       <c r="D8">
-        <v>2.0374307947959</v>
+        <v>2.128336881246029</v>
       </c>
       <c r="E8">
-        <v>2.083685939736046</v>
+        <v>2.189026717883579</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.237263117290003</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.229440855139272</v>
+        <v>2.31459122269144</v>
       </c>
       <c r="C9">
-        <v>2.017840357606449</v>
+        <v>2.200177740090389</v>
       </c>
       <c r="D9">
-        <v>2.043190986542387</v>
+        <v>2.14744018086276</v>
       </c>
       <c r="E9">
-        <v>2.09644217745966</v>
+        <v>2.216125911578742</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.271735319785804</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.258648279842187</v>
+        <v>2.353905350564484</v>
       </c>
       <c r="C10">
-        <v>2.020727078112954</v>
+        <v>2.224322020041042</v>
       </c>
       <c r="D10">
-        <v>2.049041611394511</v>
+        <v>2.166733025190201</v>
       </c>
       <c r="E10">
-        <v>2.109407453756796</v>
+        <v>2.243235821996479</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.306314933023764</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.28791140397782</v>
+        <v>2.393149826978967</v>
       </c>
       <c r="C11">
-        <v>2.023730611829457</v>
+        <v>2.248246592679767</v>
       </c>
       <c r="D11">
-        <v>2.054979523992726</v>
+        <v>2.186216784249145</v>
       </c>
       <c r="E11">
-        <v>2.122585964376462</v>
+        <v>2.270353945010239</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.34099185300047</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.317216179810796</v>
+        <v>2.432308612507026</v>
       </c>
       <c r="C12">
-        <v>2.02684417013486</v>
+        <v>2.271946601589759</v>
       </c>
       <c r="D12">
-        <v>2.061002002260342</v>
+        <v>2.205893725612661</v>
       </c>
       <c r="E12">
-        <v>2.135982422871063</v>
+        <v>2.297478531093924</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.375756818899645</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.346550013596904</v>
+        <v>2.471367013250018</v>
       </c>
       <c r="C13">
-        <v>2.030061601574643</v>
+        <v>2.295418046001466</v>
       </c>
       <c r="D13">
-        <v>2.067106737275644</v>
+        <v>2.225767008120703</v>
       </c>
       <c r="E13">
-        <v>2.149602070347512</v>
+        <v>2.324608586147513</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.410601397182132</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.37590171430288</v>
+        <v>2.510311620084105</v>
       </c>
       <c r="C14">
-        <v>2.033377366826442</v>
+        <v>2.318657761119156</v>
       </c>
       <c r="D14">
-        <v>2.073291825330074</v>
+        <v>2.245840678902526</v>
       </c>
       <c r="E14">
-        <v>2.163450682802537</v>
+        <v>2.351743867604545</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.44551796215389</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.405261446467065</v>
+        <v>2.549130254313459</v>
       </c>
       <c r="C15">
-        <v>2.036786513759757</v>
+        <v>2.341663398410497</v>
       </c>
       <c r="D15">
-        <v>2.079555761730749</v>
+        <v>2.266119673163397</v>
       </c>
       <c r="E15">
-        <v>2.17753457916078</v>
+        <v>2.37888490966364</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.480499681466529</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.434620686798866</v>
+        <v>2.587811911799728</v>
       </c>
       <c r="C16">
-        <v>2.040284654599025</v>
+        <v>2.36443340705521</v>
       </c>
       <c r="D16">
-        <v>2.085897435803159</v>
+        <v>2.286609816304876</v>
       </c>
       <c r="E16">
-        <v>2.191860631508595</v>
+        <v>2.406033013488155</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.515540504301828</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.463972184176017</v>
+        <v>2.626346707454213</v>
       </c>
       <c r="C17">
-        <v>2.043867945007496</v>
+        <v>2.386967014770038</v>
       </c>
       <c r="D17">
-        <v>2.092316127116053</v>
+        <v>2.307317827982518</v>
       </c>
       <c r="E17">
-        <v>2.206436278167668</v>
+        <v>2.433190275509583</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.550635151500656</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.49330992274193</v>
+        <v>2.664725827045847</v>
       </c>
       <c r="C18">
-        <v>2.047533064220132</v>
+        <v>2.40926420894142</v>
       </c>
       <c r="D18">
-        <v>2.098811503027997</v>
+        <v>2.328251330544929</v>
       </c>
       <c r="E18">
-        <v>2.221269537233216</v>
+        <v>2.460359591256156</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2.58577910707933</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.522629089612654</v>
+        <v>2.702941471139149</v>
       </c>
       <c r="C19">
-        <v>2.051277198738233</v>
+        <v>2.431325738673987</v>
       </c>
       <c r="D19">
-        <v>2.105383618312705</v>
+        <v>2.349418859958604</v>
       </c>
       <c r="E19">
-        <v>2.23636902080461</v>
+        <v>2.487544670037264</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2.620968611102224</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.551926046099531</v>
+        <v>2.740986826056761</v>
       </c>
       <c r="C20">
-        <v>2.05509802602139</v>
+        <v>2.453153072069865</v>
       </c>
       <c r="D20">
-        <v>2.112032916340109</v>
+        <v>2.370829878887501</v>
       </c>
       <c r="E20">
-        <v>2.251743950696436</v>
+        <v>2.514750051554822</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2.656200653907376</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.581198302032552</v>
+        <v>2.778856022696031</v>
       </c>
       <c r="C21">
-        <v>2.058993700152782</v>
+        <v>2.474748386173575</v>
       </c>
       <c r="D21">
-        <v>2.118760230499464</v>
+        <v>2.39249479322895</v>
       </c>
       <c r="E21">
-        <v>2.267404176020659</v>
+        <v>2.5419811250772</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.691472971489596</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.610444492862106</v>
+        <v>2.816544102381359</v>
       </c>
       <c r="C22">
-        <v>2.062962839439673</v>
+        <v>2.496114608677409</v>
       </c>
       <c r="D22">
-        <v>2.125566789349825</v>
+        <v>2.41442497206193</v>
       </c>
       <c r="E22">
-        <v>2.283360191766215</v>
+        <v>2.569244145248549</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2.726784045532688</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.639664360767112</v>
+        <v>2.854046984840291</v>
       </c>
       <c r="C23">
-        <v>2.067004515748172</v>
+        <v>2.517255345669503</v>
       </c>
       <c r="D23">
-        <v>2.132454223581449</v>
+        <v>2.436632768298369</v>
       </c>
       <c r="E23">
-        <v>2.299623157866256</v>
+        <v>2.596546263779668</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.762133098688053</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.668858739070228</v>
+        <v>2.891361437950042</v>
       </c>
       <c r="C24">
-        <v>2.071118245614683</v>
+        <v>2.538174935790166</v>
       </c>
       <c r="D24">
-        <v>2.139424574608137</v>
+        <v>2.459131543163922</v>
       </c>
       <c r="E24">
-        <v>2.316204917822912</v>
+        <v>2.623895547621814</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2.797520100424905</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.6980295403205</v>
+        <v>2.928485054789874</v>
       </c>
       <c r="C25">
-        <v>2.075303983938344</v>
+        <v>2.558878410390799</v>
       </c>
       <c r="D25">
-        <v>2.146480306097893</v>
+        <v>2.481935691443862</v>
       </c>
       <c r="E25">
-        <v>2.333118024427747</v>
+        <v>2.651301012624623</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2.832945762332656</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.727179747802623</v>
+        <v>2.965416233718896</v>
       </c>
       <c r="C26">
-        <v>2.079562118959073</v>
+        <v>2.579371506449283</v>
       </c>
       <c r="D26">
-        <v>2.153624316851212</v>
+        <v>2.505060672453</v>
       </c>
       <c r="E26">
-        <v>2.350375754107662</v>
+        <v>2.678772654839916</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2.86841154539168</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.756313410586359</v>
+        <v>3.002154161803072</v>
       </c>
       <c r="C27">
-        <v>2.083893469377231</v>
+        <v>2.599660662962492</v>
       </c>
       <c r="D27">
-        <v>2.160859957337729</v>
+        <v>2.528523039410818</v>
       </c>
       <c r="E27">
-        <v>2.367992138916975</v>
+        <v>2.706321477971753</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2.903919661220306</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.785435642285954</v>
+        <v>3.03869880090105</v>
       </c>
       <c r="C28">
-        <v>2.088299283966998</v>
+        <v>2.61975302192395</v>
       </c>
       <c r="D28">
-        <v>2.168191049738422</v>
+        <v>2.55234047172773</v>
       </c>
       <c r="E28">
-        <v>2.385981981531449</v>
+        <v>2.73395953735248</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2.939473083847508</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.81455262349528</v>
+        <v>3.075050878250055</v>
       </c>
       <c r="C29">
-        <v>2.092781243057311</v>
+        <v>2.639656441688212</v>
       </c>
       <c r="D29">
-        <v>2.175621910360915</v>
+        <v>2.576531807489215</v>
       </c>
       <c r="E29">
-        <v>2.404360882089295</v>
+        <v>2.761699978197819</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2.975075547791083</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.843671608589071</v>
+        <v>3.111211879638095</v>
       </c>
       <c r="C30">
-        <v>2.097341462794876</v>
+        <v>2.659379496259308</v>
       </c>
       <c r="D30">
-        <v>2.183157376355169</v>
+        <v>2.601117078009578</v>
       </c>
       <c r="E30">
-        <v>2.423145257393867</v>
+        <v>2.789557071986755</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3.010731568213722</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.872800936424374</v>
+        <v>3.147184046678514</v>
       </c>
       <c r="C31">
-        <v>2.101982502244067</v>
+        <v>2.678931511084451</v>
       </c>
       <c r="D31">
-        <v>2.190802836823514</v>
+        <v>2.626117540533935</v>
       </c>
       <c r="E31">
-        <v>2.442352363521024</v>
+        <v>2.817546274206637</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3.046446438994015</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.901950047235165</v>
+        <v>3.182970378187504</v>
       </c>
       <c r="C32">
-        <v>2.106707372890272</v>
+        <v>2.69832254848191</v>
       </c>
       <c r="D32">
-        <v>2.198564268523314</v>
+        <v>2.651555709784498</v>
       </c>
       <c r="E32">
-        <v>2.462000312745304</v>
+        <v>2.845684263182374</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3.082226251341039</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.931129498516</v>
+        <v>3.21857463452264</v>
       </c>
       <c r="C33">
-        <v>2.111519551410144</v>
+        <v>2.717563470354168</v>
       </c>
       <c r="D33">
-        <v>2.20644827664844</v>
+        <v>2.677455387751103</v>
       </c>
       <c r="E33">
-        <v>2.482108091618569</v>
+        <v>2.87398899635298</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>3.118077899183273</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.960350997343737</v>
+        <v>3.254001347009705</v>
       </c>
       <c r="C34">
-        <v>2.116422996006497</v>
+        <v>2.736665920250656</v>
       </c>
       <c r="D34">
-        <v>2.214462142472874</v>
+        <v>2.703841689615</v>
       </c>
       <c r="E34">
-        <v>2.502695576516851</v>
+        <v>2.902479767009704</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>3.154009092672807</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.989627411081013</v>
+        <v>3.289255831066671</v>
       </c>
       <c r="C35">
-        <v>2.121422165739896</v>
+        <v>2.755642401829575</v>
       </c>
       <c r="D35">
-        <v>2.222613876792221</v>
+        <v>2.730741063180038</v>
       </c>
       <c r="E35">
-        <v>2.52378353542352</v>
+        <v>2.931177252680907</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3.190028372147821</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.018972826234081</v>
+        <v>3.324344202906045</v>
       </c>
       <c r="C36">
-        <v>2.126522044934718</v>
+        <v>2.774506270487824</v>
       </c>
       <c r="D36">
-        <v>2.230912281508406</v>
+        <v>2.758181301253828</v>
       </c>
       <c r="E36">
-        <v>2.545393647028721</v>
+        <v>2.96010358148186</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3.226145116405231</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.048402574881454</v>
+        <v>3.359273401236422</v>
       </c>
       <c r="C37">
-        <v>2.131728171890795</v>
+        <v>2.793271826670819</v>
       </c>
       <c r="D37">
-        <v>2.239367020098457</v>
+        <v>2.786191545158492</v>
       </c>
       <c r="E37">
-        <v>2.567548482976637</v>
+        <v>2.989282386579354</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>3.262369561497113</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.077933282209756</v>
+        <v>3.394051212856316</v>
       </c>
       <c r="C38">
-        <v>2.13704667244609</v>
+        <v>2.811954325199122</v>
       </c>
       <c r="D38">
-        <v>2.247988698478476</v>
+        <v>2.814802277420357</v>
       </c>
       <c r="E38">
-        <v>2.590271508160955</v>
+        <v>3.018738862472124</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>3.298712808652315</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.107582934707109</v>
+        <v>3.428686303678102</v>
       </c>
       <c r="C39">
-        <v>2.142484299488201</v>
+        <v>2.830570079405844</v>
       </c>
       <c r="D39">
-        <v>2.256788956435494</v>
+        <v>2.84404529267184</v>
       </c>
       <c r="E39">
-        <v>2.613587065447023</v>
+        <v>3.048499824876957</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>3.33518684046815</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.137370918749336</v>
+        <v>3.4631882556908</v>
       </c>
       <c r="C40">
-        <v>2.148048479452692</v>
+        <v>2.849136507849033</v>
       </c>
       <c r="D40">
-        <v>2.265780572892282</v>
+        <v>2.873953654855487</v>
       </c>
       <c r="E40">
-        <v>2.637520322345087</v>
+        <v>3.078593757771594</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>3.371804529854586</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.167318103777776</v>
+        <v>3.497567608143437</v>
       </c>
       <c r="C41">
-        <v>2.153747364384845</v>
+        <v>2.867672230229766</v>
       </c>
       <c r="D41">
-        <v>2.274977587507983</v>
+        <v>2.904561626004618</v>
       </c>
       <c r="E41">
-        <v>2.662097270587581</v>
+        <v>3.10905086535844</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>3.408579653521031</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.197446918368821</v>
+        <v>3.531835905396966</v>
       </c>
       <c r="C42">
-        <v>2.159589895320474</v>
+        <v>2.886197190360789</v>
       </c>
       <c r="D42">
-        <v>2.28439543857275</v>
+        <v>2.93590458561142</v>
       </c>
       <c r="E42">
-        <v>2.687344621139592</v>
+        <v>3.139903093916252</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>3.445526896049035</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.227781410708357</v>
+        <v>3.566005750674977</v>
       </c>
       <c r="C43">
-        <v>2.165585873784683</v>
+        <v>2.904732709990915</v>
       </c>
       <c r="D43">
-        <v>2.294051121898805</v>
+        <v>2.968018889343639</v>
       </c>
       <c r="E43">
-        <v>2.713289758879508</v>
+        <v>3.171184171804731</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>3.482661864256202</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.258347372185213</v>
+        <v>3.600090866418621</v>
       </c>
       <c r="C44">
-        <v>2.171746044571182</v>
+        <v>2.923301737807059</v>
       </c>
       <c r="D44">
-        <v>2.3039633734588</v>
+        <v>3.000941710512771</v>
       </c>
       <c r="E44">
-        <v>2.739960654755412</v>
+        <v>3.202929600762694</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>3.520001081061951</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.289172412499533</v>
+        <v>3.634106164517855</v>
       </c>
       <c r="C45">
-        <v>2.178082191649012</v>
+        <v>2.941928839706683</v>
       </c>
       <c r="D45">
-        <v>2.314152880716517</v>
+        <v>3.034710830664592</v>
       </c>
       <c r="E45">
-        <v>2.767385699835676</v>
+        <v>3.235176614373949</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3.557561995494484</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.320286073583588</v>
+        <v>3.668067822426744</v>
       </c>
       <c r="C46">
-        <v>2.184607250306114</v>
+        <v>2.960640581915437</v>
       </c>
       <c r="D46">
-        <v>2.324642522655609</v>
+        <v>3.069364408552148</v>
       </c>
       <c r="E46">
-        <v>2.795593653506431</v>
+        <v>3.267964188877051</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>3.595362971648304</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.351719959080668</v>
+        <v>3.70199336938035</v>
       </c>
       <c r="C47">
-        <v>2.191335431532576</v>
+        <v>2.979465492722869</v>
       </c>
       <c r="D47">
-        <v>2.335457650429195</v>
+        <v>3.104940657953243</v>
       </c>
       <c r="E47">
-        <v>2.824613384638643</v>
+        <v>3.301332871223269</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>3.633423284269818</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.383507829486539</v>
+        <v>3.735901782553075</v>
       </c>
       <c r="C48">
-        <v>2.198282375411467</v>
+        <v>2.9984345299524</v>
       </c>
       <c r="D48">
-        <v>2.346626410031304</v>
+        <v>3.141477499692649</v>
       </c>
       <c r="E48">
-        <v>2.854473736458424</v>
+        <v>3.335324681767348</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>3.671763093696748</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.415685759099401</v>
+        <v>3.769813591933123</v>
       </c>
       <c r="C49">
-        <v>2.205465322669981</v>
+        <v>3.017581246225982</v>
       </c>
       <c r="D49">
-        <v>2.358180116384726</v>
+        <v>3.179012151980583</v>
       </c>
       <c r="E49">
-        <v>2.885203321783116</v>
+        <v>3.369982973046468</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>3.710403422110285</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.448292261157504</v>
+        <v>3.803751002778796</v>
       </c>
       <c r="C50">
-        <v>2.212903316606281</v>
+        <v>3.036942112245717</v>
       </c>
       <c r="D50">
-        <v>2.370153685317612</v>
+        <v>3.217580687128018</v>
       </c>
       <c r="E50">
-        <v>2.916830220052251</v>
+        <v>3.405352061070524</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>3.749366122406482</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.481368409633598</v>
+        <v>3.837738024531626</v>
       </c>
       <c r="C51">
-        <v>2.220617435538151</v>
+        <v>3.056556839074292</v>
       </c>
       <c r="D51">
-        <v>2.382586131482118</v>
+        <v>3.257217502891378</v>
       </c>
       <c r="E51">
-        <v>2.949381717588799</v>
+        <v>3.441476908160767</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3.788673830254856</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.51495801002162</v>
+        <v>3.871800619636592</v>
       </c>
       <c r="C52">
-        <v>2.228631048992581</v>
+        <v>3.076468798374521</v>
       </c>
       <c r="D52">
-        <v>2.395521123035897</v>
+        <v>3.297954769927693</v>
       </c>
       <c r="E52">
-        <v>2.982884004019982</v>
+        <v>3.478402718299739</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>3.828349918492223</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.549107917841816</v>
+        <v>3.9059670415004</v>
       </c>
       <c r="C53">
-        <v>2.236970320223226</v>
+        <v>3.09672558930167</v>
       </c>
       <c r="D53">
-        <v>2.409007812729662</v>
+        <v>3.339821910074197</v>
       </c>
       <c r="E53">
-        <v>3.017361909548149</v>
+        <v>3.516174467217775</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>3.868418556060454</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.583870136839112</v>
+        <v>3.940269352918278</v>
       </c>
       <c r="C54">
-        <v>2.245665667520151</v>
+        <v>3.117379603210829</v>
       </c>
       <c r="D54">
-        <v>2.423102424795937</v>
+        <v>3.382845592374302</v>
       </c>
       <c r="E54">
-        <v>3.052838679763603</v>
+        <v>3.554837081238782</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>3.908906312458538</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.619303935944752</v>
+        <v>3.974745130730189</v>
       </c>
       <c r="C55">
-        <v>2.254753532198789</v>
+        <v>3.138489283706727</v>
       </c>
       <c r="D55">
-        <v>2.437870130123486</v>
+        <v>3.42704982089171</v>
       </c>
       <c r="E55">
-        <v>3.08933599509322</v>
+        <v>3.594435497124764</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>3.949843648514301</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.655475927950623</v>
+        <v>4.009437518495029</v>
       </c>
       <c r="C56">
-        <v>2.264276923842194</v>
+        <v>3.160119465038771</v>
       </c>
       <c r="D56">
-        <v>2.45338609538952</v>
+        <v>3.472455249346247</v>
       </c>
       <c r="E56">
-        <v>3.126873471863805</v>
+        <v>3.635013824772383</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>3.991264730765441</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.69245995755527</v>
+        <v>4.044395280300577</v>
       </c>
       <c r="C57">
-        <v>2.274286057690475</v>
+        <v>3.182341977833463</v>
       </c>
       <c r="D57">
-        <v>2.469736627137499</v>
+        <v>3.519078549113762</v>
       </c>
       <c r="E57">
-        <v>3.165468287894076</v>
+        <v>3.676614395906554</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>4.033207081293355</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.730336996416271</v>
+        <v>4.079672899909393</v>
       </c>
       <c r="C58">
-        <v>2.284839146138608</v>
+        <v>3.205236267442413</v>
       </c>
       <c r="D58">
-        <v>2.487020460537818</v>
+        <v>3.566931806548645</v>
       </c>
       <c r="E58">
-        <v>3.205134782594383</v>
+        <v>3.719276709884669</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>4.075711215628716</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.769194975339641</v>
+        <v>4.115330717251142</v>
       </c>
       <c r="C59">
-        <v>2.296003364719917</v>
+        <v>3.228889996687312</v>
       </c>
       <c r="D59">
-        <v>2.505350150387063</v>
+        <v>3.616022030098728</v>
       </c>
       <c r="E59">
-        <v>3.245884098328532</v>
+        <v>3.763036342919003</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>4.11882024863219</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.809128530254557</v>
+        <v>4.151435108184119</v>
       </c>
       <c r="C60">
-        <v>2.307856032552567</v>
+        <v>3.253399563214967</v>
       </c>
       <c r="D60">
-        <v>2.524853547820997</v>
+        <v>3.66635073595129</v>
       </c>
       <c r="E60">
-        <v>3.287723822955744</v>
+        <v>3.807923865403386</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>4.162579478635863</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.850238643767782</v>
+        <v>4.188058719749329</v>
       </c>
       <c r="C61">
-        <v>2.320486001875621</v>
+        <v>3.278870517354092</v>
       </c>
       <c r="D61">
-        <v>2.54567517304474</v>
+        <v>3.717913669596616</v>
       </c>
       <c r="E61">
-        <v>3.33065768350005</v>
+        <v>3.853963777039832</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>4.207035916144497</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.892632135743886</v>
+        <v>4.22528074753162</v>
       </c>
       <c r="C62">
-        <v>2.333995415891045</v>
+        <v>3.305417699184722</v>
       </c>
       <c r="D62">
-        <v>2.567977356355603</v>
+        <v>3.770700678950886</v>
       </c>
       <c r="E62">
-        <v>3.374685321787837</v>
+        <v>3.901173579893837</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>4.252237784067581</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.936420950857741</v>
+        <v>4.263187235600256</v>
       </c>
       <c r="C63">
-        <v>2.348501728691574</v>
+        <v>3.333164904270399</v>
       </c>
       <c r="D63">
-        <v>2.591940780924077</v>
+        <v>3.824695713878934</v>
       </c>
       <c r="E63">
-        <v>3.419802107499267</v>
+        <v>3.949562979136635</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>4.298233970625151</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.981721180694231</v>
+        <v>4.301871409319135</v>
       </c>
       <c r="C64">
-        <v>2.364140020318313</v>
+        <v>3.362243884039038</v>
       </c>
       <c r="D64">
-        <v>2.61776395467709</v>
+        <v>3.879876975658783</v>
       </c>
       <c r="E64">
-        <v>3.465999027216435</v>
+        <v>3.999133286567239</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>4.345073434568106</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.028651783819718</v>
+        <v>4.341434010705796</v>
       </c>
       <c r="C65">
-        <v>2.381065664979581</v>
+        <v>3.392792382214984</v>
       </c>
       <c r="D65">
-        <v>2.645660912773532</v>
+        <v>3.936217202834221</v>
       </c>
       <c r="E65">
-        <v>3.51326265508673</v>
+        <v>4.049877083902482</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>4.392804548230131</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.077332923895674</v>
+        <v>4.381983603181371</v>
       </c>
       <c r="C66">
-        <v>2.399457176993725</v>
+        <v>3.424950768785878</v>
       </c>
       <c r="D66">
-        <v>2.675856262843685</v>
+        <v>3.993684071034299</v>
       </c>
       <c r="E66">
-        <v>3.561575199534721</v>
+        <v>4.101778158052987</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>4.441474394428329</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.127883899446051</v>
+        <v>4.423636802145731</v>
       </c>
       <c r="C67">
-        <v>2.419519017144121</v>
+        <v>3.458857014000466</v>
       </c>
       <c r="D67">
-        <v>2.708576580970544</v>
+        <v>4.052240689013971</v>
       </c>
       <c r="E67">
-        <v>3.61091462592943</v>
+        <v>4.154811725055428</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>4.491128025871234</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.180420622023384</v>
+        <v>4.466518373576416</v>
       </c>
       <c r="C68">
-        <v>2.441483899543814</v>
+        <v>3.494639610047073</v>
       </c>
       <c r="D68">
-        <v>2.744037341962515</v>
+        <v>4.111846161100797</v>
       </c>
       <c r="E68">
-        <v>3.661254853574891</v>
+        <v>4.208944928359736</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>4.541807679764708</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.235052651619644</v>
+        <v>4.510761125555807</v>
       </c>
       <c r="C69">
-        <v>2.465613757640343</v>
+        <v>3.532408435592754</v>
       </c>
       <c r="D69">
-        <v>2.78242521010834</v>
+        <v>4.172456187057057</v>
       </c>
       <c r="E69">
-        <v>3.712566018672392</v>
+        <v>4.264137574039546</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>4.593551971730896</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.291879851644393</v>
+        <v>4.55650548374013</v>
       </c>
       <c r="C70">
-        <v>2.492198038235428</v>
+        <v>3.572243869181154</v>
       </c>
       <c r="D70">
-        <v>2.823876874080519</v>
+        <v>4.234023671152155</v>
       </c>
       <c r="E70">
-        <v>3.764814791512046</v>
+        <v>4.320343054997662</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>4.646395083020547</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.350988748951965</v>
+        <v>4.603898444200061</v>
       </c>
       <c r="C71">
-        <v>2.521547276711135</v>
+        <v>3.614185159086571</v>
       </c>
       <c r="D71">
-        <v>2.868457493826007</v>
+        <v>4.296499314161374</v>
       </c>
       <c r="E71">
-        <v>3.817964740826943</v>
+        <v>4.377509402486761</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>4.700365960932047</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.412448797257211</v>
+        <v>4.653092019135063</v>
       </c>
       <c r="C72">
-        <v>2.553979429100682</v>
+        <v>3.65821962556104</v>
       </c>
       <c r="D72">
-        <v>2.916143584615339</v>
+        <v>4.359832168587428</v>
       </c>
       <c r="E72">
-        <v>3.871976730192719</v>
+        <v>4.435580397288717</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>4.755487565128452</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.476308780039722</v>
+        <v>4.704240797972967</v>
       </c>
       <c r="C73">
-        <v>2.589796613859702</v>
+        <v>3.704274905505667</v>
       </c>
       <c r="D73">
-        <v>2.966815695775536</v>
+        <v>4.423970143045292</v>
       </c>
       <c r="E73">
-        <v>3.926809337102879</v>
+        <v>4.494496682592082</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>4.811776188215425</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.542593651228935</v>
+        <v>4.757498345376571</v>
       </c>
       <c r="C74">
-        <v>2.629250469589375</v>
+        <v>3.752216179468083</v>
       </c>
       <c r="D74">
-        <v>3.020264412767491</v>
+        <v>4.488860449199526</v>
       </c>
       <c r="E74">
-        <v>3.982419283204026</v>
+        <v>4.554196826837027</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>4.869240882465858</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.611302117564025</v>
+        <v>4.813012429359446</v>
       </c>
       <c r="C75">
-        <v>2.672500334036233</v>
+        <v>3.801850004874466</v>
       </c>
       <c r="D75">
-        <v>3.076209328976004</v>
+        <v>4.554449991162666</v>
       </c>
       <c r="E75">
-        <v>4.038761866429799</v>
+        <v>4.614618296457176</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>4.927883028349481</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.682405265042441</v>
+        <v>4.870918891642037</v>
       </c>
       <c r="C76">
-        <v>2.71957176087956</v>
+        <v>3.852934364067128</v>
       </c>
       <c r="D76">
-        <v>3.13432646419402</v>
+        <v>4.620685703544593</v>
       </c>
       <c r="E76">
-        <v>4.095791387072161</v>
+        <v>4.675698317348853</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>4.987696071003773</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.75584643811314</v>
+        <v>4.931334337031265</v>
       </c>
       <c r="C77">
-        <v>2.770329761984799</v>
+        <v>3.905193723138508</v>
       </c>
       <c r="D77">
-        <v>3.194277436065398</v>
+        <v>4.687514847112573</v>
       </c>
       <c r="E77">
-        <v>4.15346156115535</v>
+        <v>4.73737461166838</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>5.048665446230515</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.831542471161009</v>
+        <v>4.994347910946279</v>
       </c>
       <c r="C78">
-        <v>2.824479802879092</v>
+        <v>3.958336261176396</v>
       </c>
       <c r="D78">
-        <v>3.255734295185511</v>
+        <v>4.754885272668043</v>
       </c>
       <c r="E78">
-        <v>4.211725915105184</v>
+        <v>4.799586008541383</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>5.110768711586975</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.909386211767258</v>
+        <v>5.060012939524007</v>
       </c>
       <c r="C79">
-        <v>2.881600307961805</v>
+        <v>4.012070165751374</v>
       </c>
       <c r="D79">
-        <v>3.318396773991227</v>
+        <v>4.822745662354849</v>
       </c>
       <c r="E79">
-        <v>4.270538156155452</v>
+        <v>4.862272935700903</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>5.173975878985869</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.989250143343488</v>
+        <v>5.128339345577579</v>
       </c>
       <c r="C80">
-        <v>2.941197236384348</v>
+        <v>4.06611739752101</v>
       </c>
       <c r="D80">
-        <v>3.382001468661804</v>
+        <v>4.891045754952279</v>
       </c>
       <c r="E80">
-        <v>4.329852515695958</v>
+        <v>4.925377801032253</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>5.238249936414745</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.07099077508733</v>
+        <v>5.199288048459503</v>
       </c>
       <c r="C81">
-        <v>3.002762618508375</v>
+        <v>4.120223292499036</v>
       </c>
       <c r="D81">
-        <v>3.446324449887169</v>
+        <v>4.959736557807831</v>
       </c>
       <c r="E81">
-        <v>4.389624058741579</v>
+        <v>4.988845276029232</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>5.303547536632442</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.154453416979118</v>
+        <v>5.272768595060812</v>
       </c>
       <c r="C82">
-        <v>3.065821227581557</v>
+        <v>4.174162118522275</v>
       </c>
       <c r="D82">
-        <v>3.511179498172939</v>
+        <v>5.028770544500852</v>
       </c>
       <c r="E82">
-        <v>4.449808957783755</v>
+        <v>5.052622494849773</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>5.369819815173181</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.239476943784517</v>
+        <v>5.348640476098245</v>
       </c>
       <c r="C83">
-        <v>3.129958183987914</v>
+        <v>4.227739147057776</v>
       </c>
       <c r="D83">
-        <v>3.576413980949919</v>
+        <v>5.098101834962382</v>
       </c>
       <c r="E83">
-        <v>4.510364727464179</v>
+        <v>5.116659179972399</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>5.437013297983209</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.325898208570627</v>
+        <v>5.42671864601752</v>
       </c>
       <c r="C84">
-        <v>3.194828787809433</v>
+        <v>4.28079016857766</v>
       </c>
       <c r="D84">
-        <v>3.641903840794995</v>
+        <v>5.167686353335659</v>
       </c>
       <c r="E84">
-        <v>4.571250419033889</v>
+        <v>5.180907708501741</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>5.505070854873016</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.413555864346071</v>
+        <v>5.506782415951784</v>
       </c>
       <c r="C85">
-        <v>3.260156176201988</v>
+        <v>4.333179389896122</v>
       </c>
       <c r="D85">
-        <v>3.70754860362993</v>
+        <v>5.23748195893367</v>
       </c>
       <c r="E85">
-        <v>4.632426774386924</v>
+        <v>5.245323126571574</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>5.573932659141935</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.502293412685777</v>
+        <v>5.588586531131357</v>
       </c>
       <c r="C86">
-        <v>3.325722686978924</v>
+        <v>4.384796460183166</v>
       </c>
       <c r="D86">
-        <v>3.773266868929616</v>
+        <v>5.307448537888313</v>
       </c>
       <c r="E86">
-        <v>4.693856334897228</v>
+        <v>5.309863120620189</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>5.643537104934138</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.59196163199661</v>
+        <v>5.671873258425091</v>
       </c>
       <c r="C87">
-        <v>3.391359273552571</v>
+        <v>4.435553295450777</v>
       </c>
       <c r="D87">
-        <v>3.838992526584241</v>
+        <v>5.377548102275847</v>
       </c>
       <c r="E87">
-        <v>4.75550354122099</v>
+        <v>5.374487957499525</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>5.713821679096511</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.682419913191906</v>
+        <v>5.756383102857142</v>
       </c>
       <c r="C88">
-        <v>3.456935000152715</v>
+        <v>4.485380671690693</v>
       </c>
       <c r="D88">
-        <v>3.9046714880666</v>
+        <v>5.447744763254728</v>
       </c>
       <c r="E88">
-        <v>4.817334740315158</v>
+        <v>5.439160372793599</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>5.784723673596365</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.773537349995634</v>
+        <v>5.841864438523135</v>
       </c>
       <c r="C89">
-        <v>3.522348524140201</v>
+        <v>4.534225503785817</v>
       </c>
       <c r="D89">
-        <v>3.970259253592664</v>
+        <v>5.518004799660092</v>
       </c>
       <c r="E89">
-        <v>4.879318232121517</v>
+        <v>5.503845513401061</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>5.85618093837853</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.865193202805066</v>
+        <v>5.928080416551802</v>
       </c>
       <c r="C90">
-        <v>3.587520832644981</v>
+        <v>4.582048117435021</v>
       </c>
       <c r="D90">
-        <v>4.03571896341794</v>
+        <v>5.588296632103578</v>
       </c>
       <c r="E90">
-        <v>4.94142425057692</v>
+        <v>5.568510809342992</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>5.928132462963308</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.95727680994746</v>
+        <v>6.014813360866863</v>
       </c>
       <c r="C91">
-        <v>3.652390032621648</v>
+        <v>4.628819961570259</v>
       </c>
       <c r="D91">
-        <v>4.101019751002715</v>
+        <v>5.658590793535641</v>
       </c>
       <c r="E91">
-        <v>5.003624937031981</v>
+        <v>5.633125871577741</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>6.000518856347278</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.049687338088097</v>
+        <v>6.101867466269463</v>
       </c>
       <c r="C92">
-        <v>3.716906914736558</v>
+        <v>4.674521738470243</v>
       </c>
       <c r="D92">
-        <v>4.166135595595533</v>
+        <v>5.728859876523356</v>
       </c>
       <c r="E92">
-        <v>5.065894292471416</v>
+        <v>5.697662369982315</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>6.073282741751429</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.142333280061698</v>
+        <v>6.189069282916566</v>
       </c>
       <c r="C93">
-        <v>3.781032044965724</v>
+        <v>4.719141894779578</v>
       </c>
       <c r="D93">
-        <v>4.231044336488123</v>
+        <v>5.799078463379361</v>
       </c>
       <c r="E93">
-        <v>5.128208118359984</v>
+        <v>5.762093909915583</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>6.146369046102213</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.235131832271406</v>
+        <v>6.276266933168693</v>
       </c>
       <c r="C94">
-        <v>3.844733406411903</v>
+        <v>4.76267513885128</v>
       </c>
       <c r="D94">
-        <v>4.295726943742102</v>
+        <v>5.869223047796234</v>
       </c>
       <c r="E94">
-        <v>5.190543947425582</v>
+        <v>5.826395917747741</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>6.21972518809208</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6.328008234020815</v>
+        <v>6.363328842324908</v>
       </c>
       <c r="C95">
-        <v>3.90798470468853</v>
+        <v>4.805121382756778</v>
       </c>
       <c r="D95">
-        <v>4.360166977372221</v>
+        <v>5.93927194790266</v>
       </c>
       <c r="E95">
-        <v>5.252880968533129</v>
+        <v>5.890545525598556</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>6.293301212199248</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6.420895076500686</v>
+        <v>6.450141973404663</v>
       </c>
       <c r="C96">
-        <v>3.970764150120022</v>
+        <v>4.846484914530686</v>
       </c>
       <c r="D96">
-        <v>4.424350117108644</v>
+        <v>6.00920521591124</v>
       </c>
       <c r="E96">
-        <v>5.315199945222955</v>
+        <v>5.954521459827397</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>6.367049866803161</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6.513731625631709</v>
+        <v>6.536609745685183</v>
       </c>
       <c r="C97">
-        <v>4.033053502552145</v>
+        <v>4.886773622270131</v>
       </c>
       <c r="D97">
-        <v>4.488263827460291</v>
+        <v>6.079004542383063</v>
       </c>
       <c r="E97">
-        <v>5.377483132550422</v>
+        <v>6.018303934831949</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>6.440926618818861</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6.60646317604401</v>
+        <v>6.622649941564054</v>
       </c>
       <c r="C98">
-        <v>4.094837396641527</v>
+        <v>4.925998366357713</v>
       </c>
       <c r="D98">
-        <v>4.551897065730455</v>
+        <v>6.148653160841879</v>
       </c>
       <c r="E98">
-        <v>5.439714194338363</v>
+        <v>6.081874553150994</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>6.514889622742914</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6.699040454766688</v>
+        <v>6.708192826839347</v>
       </c>
       <c r="C99">
-        <v>4.156102789007615</v>
+        <v>4.964172350579629</v>
       </c>
       <c r="D99">
-        <v>4.615240064617525</v>
+        <v>6.218135755281683</v>
       </c>
       <c r="E99">
-        <v>5.501878120715967</v>
+        <v>6.145216212527841</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>6.588899665626625</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6.791419071457162</v>
+        <v>6.793179490384513</v>
       </c>
       <c r="C100">
-        <v>4.216838557365594</v>
+        <v>5.00131089217046</v>
       </c>
       <c r="D100">
-        <v>4.67828416961604</v>
+        <v>6.287438369688738</v>
       </c>
       <c r="E100">
-        <v>5.563961146730745</v>
+        <v>6.208313019586631</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>6.662920093803036</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6.883559017718316</v>
+        <v>6.877560338939427</v>
       </c>
       <c r="C101">
-        <v>4.277035216404829</v>
+        <v>5.037430994703085</v>
       </c>
       <c r="D101">
-        <v>4.741021687117593</v>
+        <v>6.356548319539808</v>
       </c>
       <c r="E101">
-        <v>5.625950673370149</v>
+        <v>6.271150209187781</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>6.736916719440358</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6.975424218378425</v>
+        <v>6.961293745153785</v>
       </c>
       <c r="C102">
-        <v>4.336684667471197</v>
+        <v>5.072550995172323</v>
       </c>
       <c r="D102">
-        <v>4.803445764348477</v>
+        <v>6.425454106729235</v>
       </c>
       <c r="E102">
-        <v>5.687835191725995</v>
+        <v>6.333714069027836</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>6.810857711547002</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7.066982129068161</v>
+        <v>7.044344882464475</v>
       </c>
       <c r="C103">
-        <v>4.395780000390319</v>
+        <v>5.106690316126784</v>
       </c>
       <c r="D103">
-        <v>4.865550280504866</v>
+        <v>6.494145338886903</v>
       </c>
       <c r="E103">
-        <v>5.749604210412348</v>
+        <v>6.395991870173266</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>6.884713479877789</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.158203378982834</v>
+        <v>7.1266847494447</v>
       </c>
       <c r="C104">
-        <v>4.454315341980109</v>
+        <v>5.139869282498022</v>
       </c>
       <c r="D104">
-        <v>4.927329793122232</v>
+        <v>6.562612653034621</v>
       </c>
       <c r="E104">
-        <v>5.811248186409541</v>
+        <v>6.457971802728345</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>6.958456556973806</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7.249061451390149</v>
+        <v>7.208289349431906</v>
       </c>
       <c r="C105">
-        <v>4.512285741025005</v>
+        <v>5.172108931989198</v>
       </c>
       <c r="D105">
-        <v>4.988779463048551</v>
+        <v>6.630847643219897</v>
       </c>
       <c r="E105">
-        <v>5.872758459435424</v>
+        <v>6.519642916733421</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>7.032061479663944</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7.33953240181327</v>
+        <v>7.289138989581319</v>
       </c>
       <c r="C106">
-        <v>4.56968707380761</v>
+        <v>5.203430850961065</v>
       </c>
       <c r="D106">
-        <v>5.049894990004971</v>
+        <v>6.698842792361162</v>
       </c>
       <c r="E106">
-        <v>5.934127190080267</v>
+        <v>6.58099506752309</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>7.105504671187797</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7.429594607212952</v>
+        <v>7.369217681355138</v>
       </c>
       <c r="C107">
-        <v>4.626515958651569</v>
+        <v>5.233857031397419</v>
       </c>
       <c r="D107">
-        <v>5.110672560670133</v>
+        <v>6.766591408291683</v>
       </c>
       <c r="E107">
-        <v>5.995347301644826</v>
+        <v>6.642018865152581</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>7.178764325446914</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7.519228545690408</v>
+        <v>7.448512633861341</v>
       </c>
       <c r="C108">
-        <v>4.682769679503629</v>
+        <v>5.263409729660215</v>
       </c>
       <c r="D108">
-        <v>5.171108804918593</v>
+        <v>6.834087564023922</v>
       </c>
       <c r="E108">
-        <v>6.056412425485894</v>
+        <v>6.702705627630478</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>7.251820295200942</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7.608416596371198</v>
+        <v>7.527013828300956</v>
       </c>
       <c r="C109">
-        <v>4.738446121815274</v>
+        <v>5.292111405261362</v>
       </c>
       <c r="D109">
-        <v>5.231200770124396</v>
+        <v>6.901326041708062</v>
       </c>
       <c r="E109">
-        <v>6.117316849868457</v>
+        <v>6.763047337699454</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>7.324653985884134</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7.697142862143656</v>
+        <v>7.60471365800978</v>
       </c>
       <c r="C110">
-        <v>4.793543722519006</v>
+        <v>5.319984640474389</v>
       </c>
       <c r="D110">
-        <v>5.290945887522181</v>
+        <v>6.968302280416474</v>
       </c>
       <c r="E110">
-        <v>6.178055472130922</v>
+        <v>6.823036602866511</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>7.397248253657409</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.785393016334271</v>
+        <v>7.681606620936012</v>
       </c>
       <c r="C111">
-        <v>4.848061426515398</v>
+        <v>5.347052045770864</v>
       </c>
       <c r="D111">
-        <v>5.35034193560736</v>
+        <v>7.035012327428788</v>
       </c>
       <c r="E111">
-        <v>6.238623754009112</v>
+        <v>6.882666618313946</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>7.469587309269804</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.873154165920083</v>
+        <v>7.757689055625051</v>
       </c>
       <c r="C112">
-        <v>4.90199864553882</v>
+        <v>5.373336183311467</v>
       </c>
       <c r="D112">
-        <v>5.40938701260149</v>
+        <v>7.101452792903527</v>
       </c>
       <c r="E112">
-        <v>6.299017680111738</v>
+        <v>6.941931132753621</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>7.541656627248853</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.96041472640866</v>
+        <v>7.832958914953215</v>
       </c>
       <c r="C113">
-        <v>4.955355220223288</v>
+        <v>5.398859524595609</v>
       </c>
       <c r="D113">
-        <v>5.468079516077467</v>
+        <v>7.167620807706578</v>
       </c>
       <c r="E113">
-        <v>6.35923371918231</v>
+        <v>7.00082441634208</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>7.613442860757281</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>8.04716430835157</v>
+        <v>7.907415572605501</v>
       </c>
       <c r="C114">
-        <v>5.008131386577596</v>
+        <v>5.42364433771127</v>
       </c>
       <c r="D114">
-        <v>5.526418122975578</v>
+        <v>7.233513984195403</v>
       </c>
       <c r="E114">
-        <v>6.419268788105355</v>
+        <v>7.059341230870738</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>7.684933761888559</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>8.133393617089565</v>
+        <v>7.981059655742701</v>
       </c>
       <c r="C115">
-        <v>5.060327746398148</v>
+        <v>5.447712729753748</v>
       </c>
       <c r="D115">
-        <v>5.584401769211271</v>
+        <v>7.299130379671049</v>
       </c>
       <c r="E115">
-        <v>6.479120218941445</v>
+        <v>7.117476802186537</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>7.756118107145081</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>8.219094363404091</v>
+        <v>8.053892899261356</v>
       </c>
       <c r="C116">
-        <v>5.111945240105071</v>
+        <v>5.471086582641496</v>
       </c>
       <c r="D116">
-        <v>5.642029631156649</v>
+        <v>7.364468462575164</v>
       </c>
       <c r="E116">
-        <v>6.538785727001931</v>
+        <v>7.175226794350185</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>7.826985627850622</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8.304259182749368</v>
+        <v>8.125918018517575</v>
       </c>
       <c r="C117">
-        <v>5.162985121857856</v>
+        <v>5.493787516726793</v>
       </c>
       <c r="D117">
-        <v>5.699301109088649</v>
+        <v>7.429527081006386</v>
       </c>
       <c r="E117">
-        <v>6.598263381621595</v>
+        <v>7.232587285482162</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>7.897526945304546</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8.388881561760451</v>
+        <v>8.197138597960977</v>
       </c>
       <c r="C118">
-        <v>5.213448937391142</v>
+        <v>5.515836852302359</v>
       </c>
       <c r="D118">
-        <v>5.756215812452541</v>
+        <v>7.494305433756291</v>
       </c>
       <c r="E118">
-        <v>6.657551580184403</v>
+        <v>7.289554745183556</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>7.967733510449953</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>8.4729557749768</v>
+        <v>8.267558993305977</v>
       </c>
       <c r="C119">
-        <v>5.263338499466012</v>
+        <v>5.537255579261288</v>
       </c>
       <c r="D119">
-        <v>5.812773541861493</v>
+        <v>7.558803042958288</v>
       </c>
       <c r="E119">
-        <v>6.716649023276195</v>
+        <v>7.346126013363079</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>8.037597549164495</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8.556476815507658</v>
+        <v>8.337184245106707</v>
       </c>
       <c r="C120">
-        <v>5.312655870811082</v>
+        <v>5.558064341654925</v>
       </c>
       <c r="D120">
-        <v>5.868974284145822</v>
+        <v>7.623019729521956</v>
       </c>
       <c r="E120">
-        <v>6.775554691704747</v>
+        <v>7.402298280346003</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>8.107112007255891</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8.639440346257121</v>
+        <v>8.406020006611325</v>
       </c>
       <c r="C121">
-        <v>5.361403342978217</v>
+        <v>5.57828342797717</v>
       </c>
       <c r="D121">
-        <v>5.924818189257948</v>
+        <v>7.686955587011786</v>
       </c>
       <c r="E121">
-        <v>6.834267824934535</v>
+        <v>7.458069068173825</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>8.176270503153297</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>8.721842648374597</v>
+        <v>8.47407246508957</v>
       </c>
       <c r="C122">
-        <v>5.409583418487523</v>
+        <v>5.59793275374411</v>
       </c>
       <c r="D122">
-        <v>5.980305570992702</v>
+        <v>7.750610962755831</v>
       </c>
       <c r="E122">
-        <v>6.892787901496331</v>
+        <v>7.513436213010308</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>8.245067284255539</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8.803680564020238</v>
+        <v>8.541348287055493</v>
       </c>
       <c r="C123">
-        <v>5.457198801890745</v>
+        <v>5.617031845726885</v>
       </c>
       <c r="D123">
-        <v>6.035436888915997</v>
+        <v>7.813986437714437</v>
       </c>
       <c r="E123">
-        <v>6.951114620174322</v>
+        <v>7.568397848619845</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>8.313497178306967</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8.884951479843624</v>
+        <v>8.607854566403217</v>
       </c>
       <c r="C124">
-        <v>5.504252374838554</v>
+        <v>5.635599831640009</v>
       </c>
       <c r="D124">
-        <v>6.090212740651579</v>
+        <v>7.877082806797993</v>
       </c>
       <c r="E124">
-        <v>7.009247883107692</v>
+        <v>7.622952391298487</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>8.381555564814413</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8.96565326372834</v>
+        <v>8.673598756076768</v>
       </c>
       <c r="C125">
-        <v>5.550747191697522</v>
+        <v>5.653655437042435</v>
       </c>
       <c r="D125">
-        <v>6.144633852604182</v>
+        <v>7.939901062076068</v>
       </c>
       <c r="E125">
-        <v>7.067187779804976</v>
+        <v>7.677098523545365</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>8.449238333807639</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>9.045784245539554</v>
+        <v>8.73858865628039</v>
       </c>
       <c r="C126">
-        <v>5.596686459260663</v>
+        <v>5.671216960924647</v>
       </c>
       <c r="D126">
-        <v>6.198701069759678</v>
+        <v>8.002442376848263</v>
       </c>
       <c r="E126">
-        <v>7.124934572737635</v>
+        <v>7.730835181537141</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>8.516541850885934</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>9.125343176821017</v>
+        <v>8.802832353628366</v>
       </c>
       <c r="C127">
-        <v>5.642073526101187</v>
+        <v>5.688302309493142</v>
       </c>
       <c r="D127">
-        <v>6.252415348478584</v>
+        <v>8.064708090323185</v>
       </c>
       <c r="E127">
-        <v>7.182488683929683</v>
+        <v>7.78416154092535</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>8.583462927644099</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>9.204329196696493</v>
+        <v>8.866338188033446</v>
       </c>
       <c r="C128">
-        <v>5.686911872747911</v>
+        <v>5.704928927482869</v>
       </c>
       <c r="D128">
-        <v>6.305777749467897</v>
+        <v>8.126699692944854</v>
       </c>
       <c r="E128">
-        <v>7.239850682156756</v>
+        <v>7.837077003521561</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>8.649998791643906</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>9.282741809110211</v>
+        <v>8.929114722977021</v>
       </c>
       <c r="C129">
-        <v>5.731205096630274</v>
+        <v>5.721113860148828</v>
       </c>
       <c r="D129">
-        <v>6.358789428215026</v>
+        <v>8.188418814680833</v>
       </c>
       <c r="E129">
-        <v>7.297021272632282</v>
+        <v>7.889581188963051</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>8.716147058487962</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>9.360580856194572</v>
+        <v>8.991170711986388</v>
       </c>
       <c r="C130">
-        <v>5.774956906629773</v>
+        <v>5.736873726419539</v>
       </c>
       <c r="D130">
-        <v>6.411451631712808</v>
+        <v>8.249867212942789</v>
       </c>
       <c r="E130">
-        <v>7.354001281728855</v>
+        <v>7.941673918795677</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>8.781905706092733</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>9.437846487802014</v>
+        <v>9.052515068008674</v>
       </c>
       <c r="C131">
-        <v>5.818171110131437</v>
+        <v>5.752224732315947</v>
       </c>
       <c r="D131">
-        <v>6.463765689227726</v>
+        <v>8.311046761248345</v>
       </c>
       <c r="E131">
-        <v>7.410791654829979</v>
+        <v>7.993355210100748</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>8.847273053100484</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>9.514539149526996</v>
+        <v>9.113156845992185</v>
       </c>
       <c r="C132">
-        <v>5.860851605260826</v>
+        <v>5.767182657268524</v>
       </c>
       <c r="D132">
-        <v>6.515733007917197</v>
+        <v>8.371959438701037</v>
       </c>
       <c r="E132">
-        <v>7.467393433737725</v>
+        <v>8.044625262686193</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>8.912247735470965</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>9.590659553791067</v>
+        <v>9.173105215296697</v>
       </c>
       <c r="C133">
-        <v>5.903002373277569</v>
+        <v>5.781762867389289</v>
       </c>
       <c r="D133">
-        <v>6.567355066907493</v>
+        <v>8.432607321286948</v>
       </c>
       <c r="E133">
-        <v>7.52380776568276</v>
+        <v>8.095484449436364</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>8.976828684556006</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>9.666208663642342</v>
+        <v>9.232369439284346</v>
       </c>
       <c r="C134">
-        <v>5.94462746811536</v>
+        <v>5.795980316982609</v>
       </c>
       <c r="D134">
-        <v>6.61863341090585</v>
+        <v>8.492992573867978</v>
       </c>
       <c r="E134">
-        <v>7.580035875882502</v>
+        <v>8.145933308381904</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>9.041015110345514</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>9.741187675458617</v>
+        <v>9.290958859830461</v>
       </c>
       <c r="C135">
-        <v>5.985731011548597</v>
+        <v>5.809849538494998</v>
       </c>
       <c r="D135">
-        <v>6.669569646750974</v>
+        <v>8.553117436838747</v>
       </c>
       <c r="E135">
-        <v>7.636079079888146</v>
+        <v>8.195972531910259</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>9.104806485315281</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>9.815597998454404</v>
+        <v>9.348882876470864</v>
       </c>
       <c r="C136">
-        <v>6.026317184237013</v>
+        <v>5.823384668859539</v>
       </c>
       <c r="D136">
-        <v>6.720165437479055</v>
+        <v>8.612984228449443</v>
       </c>
       <c r="E136">
-        <v>7.691938759485336</v>
+        <v>8.24560296031208</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>9.16820251517545</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>9.889441242205063</v>
+        <v>9.406150932015629</v>
       </c>
       <c r="C137">
-        <v>6.066390219537048</v>
+        <v>5.836599439090042</v>
       </c>
       <c r="D137">
-        <v>6.770422498361722</v>
+        <v>8.672595321463135</v>
       </c>
       <c r="E137">
-        <v>7.747616370105304</v>
+        <v>8.294825573104337</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>9.231203146276599</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>9.962719201517105</v>
+        <v>9.462772501632358</v>
       </c>
       <c r="C138">
-        <v>6.105954398308416</v>
+        <v>5.849507180918353</v>
       </c>
       <c r="D138">
-        <v>6.820342593192248</v>
+        <v>8.731953157827078</v>
       </c>
       <c r="E138">
-        <v>7.803113424280909</v>
+        <v>8.343641480598519</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>9.293808517483377</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>10.03543383976725</v>
+        <v>9.518757062758924</v>
       </c>
       <c r="C139">
-        <v>6.145014040973561</v>
+        <v>5.862120844579339</v>
       </c>
       <c r="D139">
-        <v>6.869927529234246</v>
+        <v>8.791060220199194</v>
       </c>
       <c r="E139">
-        <v>7.858431493571525</v>
+        <v>8.392051918434037</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>9.356018975730949</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>10.10758728046605</v>
+        <v>9.574114118341361</v>
       </c>
       <c r="C140">
-        <v>6.183573504421157</v>
+        <v>5.874452993766693</v>
       </c>
       <c r="D140">
-        <v>6.919179154783423</v>
+        <v>8.849919046241304</v>
       </c>
       <c r="E140">
-        <v>7.913572197435217</v>
+        <v>8.440058238796194</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>9.417835053002536</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>10.17918179240428</v>
+        <v>9.628853130225425</v>
       </c>
       <c r="C141">
-        <v>6.221637175168654</v>
+        <v>5.886515814903867</v>
       </c>
       <c r="D141">
-        <v>6.968099354896967</v>
+        <v>8.908532209989016</v>
       </c>
       <c r="E141">
-        <v>7.968537203567702</v>
+        <v>8.487661904999253</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>9.479257441497515</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>10.25021977862028</v>
+        <v>9.682983564283459</v>
       </c>
       <c r="C142">
-        <v>6.259209465090766</v>
+        <v>5.898321136386414</v>
       </c>
       <c r="D142">
-        <v>7.016690048140904</v>
+        <v>8.966902324261268</v>
       </c>
       <c r="E142">
-        <v>8.023328218534143</v>
+        <v>8.534864486769003</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>9.540287014415298</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>10.32070376760387</v>
+        <v>9.736514853138496</v>
       </c>
       <c r="C143">
-        <v>6.296294807448374</v>
+        <v>5.909880416061944</v>
       </c>
       <c r="D143">
-        <v>7.064953184063081</v>
+        <v>9.025032033309367</v>
       </c>
       <c r="E143">
-        <v>8.077946988707328</v>
+        <v>8.581667649099757</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>9.600924774355056</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>10.39063640114435</v>
+        <v>9.789456379659052</v>
       </c>
       <c r="C144">
-        <v>6.332897651227321</v>
+        <v>5.921204767941266</v>
       </c>
       <c r="D144">
-        <v>7.112890739425732</v>
+        <v>9.082924008742568</v>
       </c>
       <c r="E144">
-        <v>8.13239529169048</v>
+        <v>8.628073150137821</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>9.661171883027441</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>10.46002042664871</v>
+        <v>9.841817509885068</v>
       </c>
       <c r="C145">
-        <v>6.369022458780494</v>
+        <v>5.932304955988514</v>
       </c>
       <c r="D145">
-        <v>7.160504716246842</v>
+        <v>9.140580946408358</v>
       </c>
       <c r="E145">
-        <v>8.186674937324556</v>
+        <v>8.674082839888628</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>9.721029618094915</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>10.52885868861579</v>
+        <v>9.893607530537396</v>
       </c>
       <c r="C146">
-        <v>6.404673700934948</v>
+        <v>5.943191409101034</v>
       </c>
       <c r="D146">
-        <v>7.207797138944237</v>
+        <v>9.198005561399468</v>
       </c>
       <c r="E146">
-        <v>8.240787760509139</v>
+        <v>8.719698639259351</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>9.780499389526907</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>10.59715411888381</v>
+        <v>9.944835696346582</v>
       </c>
       <c r="C147">
-        <v>6.439855853878912</v>
+        <v>5.953874226414481</v>
       </c>
       <c r="D147">
-        <v>7.254770051583821</v>
+        <v>9.255200586695953</v>
       </c>
       <c r="E147">
-        <v>8.294735621340259</v>
+        <v>8.764922556968536</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>9.839582712519384</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>10.66490973111656</v>
+        <v>9.995511181768872</v>
       </c>
       <c r="C148">
-        <v>6.474573396363553</v>
+        <v>5.964363185026886</v>
       </c>
       <c r="D148">
-        <v>7.301425516313443</v>
+        <v>9.312168767338123</v>
       </c>
       <c r="E148">
-        <v>8.348520399796923</v>
+        <v>8.809756668787163</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>9.898281210823244</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>10.73212861278274</v>
+        <v>10.04564310181932</v>
       </c>
       <c r="C149">
-        <v>6.508830805553685</v>
+        <v>5.974667749477463</v>
       </c>
       <c r="D149">
-        <v>7.34776561049973</v>
+        <v>9.368912861576264</v>
       </c>
       <c r="E149">
-        <v>8.402143994925581</v>
+        <v>8.854203112314179</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>9.956596604836346</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>10.79881391774882</v>
+        <v>10.0952404967579</v>
       </c>
       <c r="C150">
-        <v>6.542632555445898</v>
+        <v>5.98479707688486</v>
       </c>
       <c r="D150">
-        <v>7.393792425184914</v>
+        <v>9.425435633488101</v>
       </c>
       <c r="E150">
-        <v>8.455608321095795</v>
+        <v>8.898264102638363</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>10.01453070227644</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>10.86496886169249</v>
+        <v>10.14431232600259</v>
       </c>
       <c r="C151">
-        <v>6.57598311328721</v>
+        <v>5.99476002957984</v>
       </c>
       <c r="D151">
-        <v>7.439508063156552</v>
+        <v>9.481739856030082</v>
       </c>
       <c r="E151">
-        <v>8.508915306662482</v>
+        <v>8.941941899821268</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>10.07208540109318</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>10.93059671480295</v>
+        <v>10.19286747411685</v>
       </c>
       <c r="C152">
-        <v>6.608886937403589</v>
+        <v>6.004565178198325</v>
       </c>
       <c r="D152">
-        <v>7.484914636751068</v>
+        <v>9.537828303330118</v>
       </c>
       <c r="E152">
-        <v>8.562066891310023</v>
+        <v>8.985238824953996</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>10.12926266830667</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>10.99570079707786</v>
+        <v>10.24091473076062</v>
       </c>
       <c r="C153">
-        <v>6.641348475199393</v>
+        <v>6.014220812947301</v>
       </c>
       <c r="D153">
-        <v>7.530014266814031</v>
+        <v>9.5937037538383</v>
       </c>
       <c r="E153">
-        <v>8.615065024461684</v>
+        <v>9.028157253128839</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>10.18606455242969</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>11.06028447459115</v>
+        <v>10.28846281093997</v>
       </c>
       <c r="C154">
-        <v>6.673372160196729</v>
+        <v>6.023734950750232</v>
       </c>
       <c r="D154">
-        <v>7.574809080615404</v>
+        <v>9.649368983695043</v>
       </c>
       <c r="E154">
-        <v>8.667911663438391</v>
+        <v>9.070699600626668</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>10.24249315942181</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>11.12435114954461</v>
+        <v>10.33552032713797</v>
       </c>
       <c r="C155">
-        <v>6.704962410970383</v>
+        <v>6.033115342563833</v>
       </c>
       <c r="D155">
-        <v>7.619301210655548</v>
+        <v>9.704826769305397</v>
       </c>
       <c r="E155">
-        <v>8.720608771655934</v>
+        <v>9.112868333667114</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>10.29855066424344</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>11.18790426352843</v>
+        <v>10.38209580738885</v>
       </c>
       <c r="C156">
-        <v>6.736123628592022</v>
+        <v>6.042369480983202</v>
       </c>
       <c r="D156">
-        <v>7.663492793747657</v>
+        <v>9.760079881679408</v>
       </c>
       <c r="E156">
-        <v>8.773158317491793</v>
+        <v>9.154665954708419</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>10.35423929264696</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>11.25094728475678</v>
+        <v>10.42819768447541</v>
       </c>
       <c r="C157">
-        <v>6.766860195144408</v>
+        <v>6.051504609540635</v>
       </c>
       <c r="D157">
-        <v>7.707385968222479</v>
+        <v>9.815131088902847</v>
       </c>
       <c r="E157">
-        <v>8.825562272268478</v>
+        <v>9.196095003934209</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>10.40956132496238</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>11.31348370765585</v>
+        <v>10.4738342922923</v>
       </c>
       <c r="C158">
-        <v>6.797176472341999</v>
+        <v>6.060527726513884</v>
       </c>
       <c r="D158">
-        <v>7.750982874423931</v>
+        <v>9.869983150911038</v>
       </c>
       <c r="E158">
-        <v>8.877822609762564</v>
+        <v>9.23715805978501</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>10.46451908863569</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>11.37551705629151</v>
+        <v>10.51901387272743</v>
       </c>
       <c r="C159">
-        <v>6.827076799655153</v>
+        <v>6.069445596996732</v>
       </c>
       <c r="D159">
-        <v>7.794285652714708</v>
+        <v>9.924638822177032</v>
       </c>
       <c r="E159">
-        <v>8.929941303992381</v>
+        <v>9.277857726164831</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>10.51911495277</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>11.43705086402668</v>
+        <v>10.56374456332886</v>
       </c>
       <c r="C160">
-        <v>6.85656549371128</v>
+        <v>6.078264756277407</v>
       </c>
       <c r="D160">
-        <v>7.837296440853963</v>
+        <v>9.97910084683517</v>
       </c>
       <c r="E160">
-        <v>8.98192032930981</v>
+        <v>9.318196639878618</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>10.57335132873469</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>11.49808869245616</v>
+        <v>10.60803440745516</v>
       </c>
       <c r="C161">
-        <v>6.885646844866098</v>
+        <v>6.086991518384313</v>
       </c>
       <c r="D161">
-        <v>7.880017378040696</v>
+        <v>10.03337196109404</v>
       </c>
       <c r="E161">
-        <v>9.033761658016315</v>
+        <v>9.358177463188001</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>10.62723065974</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>11.55863410726461</v>
+        <v>10.65189134308803</v>
       </c>
       <c r="C162">
-        <v>6.914325120112255</v>
+        <v>6.09563198423043</v>
       </c>
       <c r="D162">
-        <v>7.922450596843661</v>
+        <v>10.08745488943747</v>
       </c>
       <c r="E162">
-        <v>9.085467260928125</v>
+        <v>9.397802878525507</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>10.68075542597466</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>11.61869068926992</v>
+        <v>10.69532321044083</v>
       </c>
       <c r="C163">
-        <v>6.942604556365389</v>
+        <v>6.104192045317688</v>
       </c>
       <c r="D163">
-        <v>7.964598228429563</v>
+        <v>10.14135234598739</v>
       </c>
       <c r="E163">
-        <v>9.137039104948563</v>
+        <v>9.437075595499298</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>10.73392813192069</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>11.67826202763178</v>
+        <v>10.73833774733108</v>
       </c>
       <c r="C164">
-        <v>6.970489363288627</v>
+        <v>6.112677395126568</v>
       </c>
       <c r="D164">
-        <v>8.006462399301604</v>
+        <v>10.19506703223039</v>
       </c>
       <c r="E164">
-        <v>9.18847915383267</v>
+        <v>9.475998336822517</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>10.78675131290214</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>11.73735171432296</v>
+        <v>10.78094258854621</v>
       </c>
       <c r="C165">
-        <v>6.997983724277948</v>
+        <v>6.121093529970937</v>
       </c>
       <c r="D165">
-        <v>8.048045229471606</v>
+        <v>10.24860163723268</v>
       </c>
       <c r="E165">
-        <v>9.239789366002286</v>
+        <v>9.514573843973476</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>10.83922752373619</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>11.79596334779412</v>
+        <v>10.82314527031651</v>
       </c>
       <c r="C166">
-        <v>7.025091788462853</v>
+        <v>6.129445761398107</v>
       </c>
       <c r="D166">
-        <v>8.08934883485265</v>
+        <v>10.30195883655741</v>
       </c>
       <c r="E166">
-        <v>9.29097169522905</v>
+        <v>9.552804874881415</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>10.89135934196742</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>11.85410052349281</v>
+        <v>10.86495322305568</v>
       </c>
       <c r="C167">
-        <v>7.05181767919372</v>
+        <v>6.137739218049364</v>
       </c>
       <c r="D167">
-        <v>8.130375323000766</v>
+        <v>10.35514129181347</v>
       </c>
       <c r="E167">
-        <v>9.342028088790583</v>
+        <v>9.590694196278831</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>10.94314936295424</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>11.91176683882165</v>
+        <v>10.90637377996091</v>
       </c>
       <c r="C168">
-        <v>7.078165485722194</v>
+        <v>6.145978853083988</v>
       </c>
       <c r="D168">
-        <v>8.171126795284295</v>
+        <v>10.40815165033332</v>
       </c>
       <c r="E168">
-        <v>9.39296048805296</v>
+        <v>9.628244589106465</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>10.99460019681058</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>11.96896588534366</v>
+        <v>10.94741416932234</v>
       </c>
       <c r="C169">
-        <v>7.104139266110921</v>
+        <v>6.154169452105958</v>
       </c>
       <c r="D169">
-        <v>8.211605344867976</v>
+        <v>10.46099254431555</v>
       </c>
       <c r="E169">
-        <v>9.443770826920055</v>
+        <v>9.66545884109086</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>11.04571446881726</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>12.0257012502944</v>
+        <v>10.9880815206848</v>
       </c>
       <c r="C170">
-        <v>7.129743047639196</v>
+        <v>6.162315634446532</v>
       </c>
       <c r="D170">
-        <v>8.251813056164098</v>
+        <v>10.51366659103691</v>
       </c>
       <c r="E170">
-        <v>9.494461032341494</v>
+        <v>9.702339746510487</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>11.09649481335673</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>12.08197651598343</v>
+        <v>11.02838286271736</v>
       </c>
       <c r="C171">
-        <v>7.154980822771436</v>
+        <v>6.170421865143425</v>
       </c>
       <c r="D171">
-        <v>8.291752005521095</v>
+        <v>10.56617639175618</v>
       </c>
       <c r="E171">
-        <v>9.54503302300723</v>
+        <v>9.738890108082559</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>11.14694387668387</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>12.13779525334293</v>
+        <v>11.06832512352378</v>
       </c>
       <c r="C172">
-        <v>7.179856552465867</v>
+        <v>6.178492453403666</v>
       </c>
       <c r="D172">
-        <v>8.331424258742528</v>
+        <v>10.61852453225653</v>
       </c>
       <c r="E172">
-        <v>9.595488709793441</v>
+        <v>9.775112728842709</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>11.197064309836</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>12.19316102833363</v>
+        <v>11.1079151334379</v>
       </c>
       <c r="C173">
-        <v>7.204374162879456</v>
+        <v>6.18653156450265</v>
       </c>
       <c r="D173">
-        <v>8.370831872996783</v>
+        <v>10.67071358167893</v>
       </c>
       <c r="E173">
-        <v>9.645829994674111</v>
+        <v>9.811010416277496</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>11.24685877227102</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>12.24807739230572</v>
+        <v>11.14715962238938</v>
       </c>
       <c r="C174">
-        <v>7.228537546188884</v>
+        <v>6.194543220837744</v>
       </c>
       <c r="D174">
-        <v>8.409976894644657</v>
+        <v>10.7227460932186</v>
       </c>
       <c r="E174">
-        <v>9.696058771102026</v>
+        <v>9.846585979236774</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>11.29632992517404</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>12.30254788625422</v>
+        <v>11.18606522467418</v>
       </c>
       <c r="C175">
-        <v>7.252350560966738</v>
+        <v>6.202531307623349</v>
       </c>
       <c r="D175">
-        <v>8.448861359454073</v>
+        <v>10.77462460300708</v>
       </c>
       <c r="E175">
-        <v>9.746176923119974</v>
+        <v>9.881842223970841</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>11.34548043364124</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>12.35657603744046</v>
+        <v>11.22463847578994</v>
       </c>
       <c r="C176">
-        <v>7.275817029717489</v>
+        <v>6.21049958050744</v>
       </c>
       <c r="D176">
-        <v>8.487487293320847</v>
+        <v>10.82635163086485</v>
       </c>
       <c r="E176">
-        <v>9.796186325674993</v>
+        <v>9.916781958638982</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>11.39431296354676</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>12.41016535823409</v>
+        <v>11.26288581647155</v>
       </c>
       <c r="C177">
-        <v>7.298940741896239</v>
+        <v>6.218451665429125</v>
       </c>
       <c r="D177">
-        <v>8.525856709920015</v>
+        <v>10.87792967927607</v>
       </c>
       <c r="E177">
-        <v>9.846088844002832</v>
+        <v>9.951407985471656</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>11.44283017997159</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>12.46331934732198</v>
+        <v>11.30081359212612</v>
       </c>
       <c r="C178">
-        <v>7.321725450787138</v>
+        <v>6.226391069559082</v>
       </c>
       <c r="D178">
-        <v>8.56397161225761</v>
+        <v>10.92936123415627</v>
       </c>
       <c r="E178">
-        <v>9.89588633389822</v>
+        <v>9.985723103737417</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>11.49103474743621</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>12.51604148486811</v>
+        <v>11.33842805374525</v>
       </c>
       <c r="C179">
-        <v>7.344174874568284</v>
+        <v>6.234321179334585</v>
       </c>
       <c r="D179">
-        <v>8.601833991213367</v>
+        <v>10.98064876393496</v>
       </c>
       <c r="E179">
-        <v>9.945580640598957</v>
+        <v>10.01973010913971</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>11.53892932632367</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>12.56833523612909</v>
+        <v>11.37573536020196</v>
       </c>
       <c r="C180">
-        <v>7.366292697176052</v>
+        <v>6.242245270326564</v>
       </c>
       <c r="D180">
-        <v>8.639445825845073</v>
+        <v>11.03179472030473</v>
       </c>
       <c r="E180">
-        <v>9.995173599743266</v>
+        <v>10.05343178895713</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>11.58651657462938</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>12.62020404655229</v>
+        <v>11.41274157739382</v>
       </c>
       <c r="C181">
-        <v>7.388082565958014</v>
+        <v>6.250166506844579</v>
       </c>
       <c r="D181">
-        <v>8.676809083491428</v>
+        <v>11.08280153743045</v>
       </c>
       <c r="E181">
-        <v>10.04466703727157</v>
+        <v>10.08683092535998</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>11.63379914376656</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>12.67165134381863</v>
+        <v>11.44945268146351</v>
       </c>
       <c r="C182">
-        <v>7.409548093991641</v>
+        <v>6.258087947281028</v>
       </c>
       <c r="D182">
-        <v>8.713925718513227</v>
+        <v>11.13367163264544</v>
       </c>
       <c r="E182">
-        <v>10.09406276732935</v>
+        <v>10.11993029188574</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>11.68077968079134</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>12.72268053675847</v>
+        <v>11.4858745579512</v>
       </c>
       <c r="C183">
-        <v>7.430692858405278</v>
+        <v>6.266012554537632</v>
       </c>
       <c r="D183">
-        <v>8.750797673492476</v>
+        <v>11.18440740580927</v>
       </c>
       <c r="E183">
-        <v>10.14336259477931</v>
+        <v>10.15273265246878</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>11.72746082446242</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>12.77329501310044</v>
+        <v>11.5220130043866</v>
       </c>
       <c r="C184">
-        <v>7.451520400874917</v>
+        <v>6.273943195786586</v>
       </c>
       <c r="D184">
-        <v>8.787426877779685</v>
+        <v>11.23501123989365</v>
       </c>
       <c r="E184">
-        <v>10.19256831447408</v>
+        <v>10.18524076342366</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>11.77384520664822</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>12.82349814167164</v>
+        <v>11.55787373077274</v>
       </c>
       <c r="C185">
-        <v>7.472034228233159</v>
+        <v>6.281882627779407</v>
       </c>
       <c r="D185">
-        <v>8.823815248157285</v>
+        <v>11.28548550056472</v>
       </c>
       <c r="E185">
-        <v>10.2416817091276</v>
+        <v>10.21745736851159</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>11.81993545042132</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>12.87329326882546</v>
+        <v>11.59346236075521</v>
       </c>
       <c r="C186">
-        <v>7.492237811237453</v>
+        <v>6.28983354039645</v>
       </c>
       <c r="D186">
-        <v>8.859964688753319</v>
+        <v>11.3358325365753</v>
       </c>
       <c r="E186">
-        <v>10.29070455225304</v>
+        <v>10.24938520133918</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>11.8657341692954</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>12.92268372061815</v>
+        <v>11.62878443332829</v>
       </c>
       <c r="C187">
-        <v>7.512134586019369</v>
+        <v>6.297798534793016</v>
       </c>
       <c r="D187">
-        <v>8.895877090197901</v>
+        <v>11.38605467960263</v>
       </c>
       <c r="E187">
-        <v>10.33963860700103</v>
+        <v>10.28102698419156</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>11.91124396734759</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>12.97167280075285</v>
+        <v>11.66384540326225</v>
       </c>
       <c r="C188">
-        <v>7.531727953136427</v>
+        <v>6.305780119703957</v>
       </c>
       <c r="D188">
-        <v>8.931554330590354</v>
+        <v>11.43615424445763</v>
       </c>
       <c r="E188">
-        <v>10.38848562483565</v>
+        <v>10.31238542539587</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>11.95646743718317</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>13.02026379057913</v>
+        <v>11.69865064319888</v>
       </c>
       <c r="C189">
-        <v>7.551021277962807</v>
+        <v>6.313780717617631</v>
       </c>
       <c r="D189">
-        <v>8.966998274358081</v>
+        <v>11.48613352911926</v>
       </c>
       <c r="E189">
-        <v>10.43724734763588</v>
+        <v>10.34346322198237</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>12.00140716105184</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>13.06845994951585</v>
+        <v>11.73320544407513</v>
       </c>
       <c r="C190">
-        <v>7.570017891403046</v>
+        <v>6.321802697537497</v>
       </c>
       <c r="D190">
-        <v>9.002210772887379</v>
+        <v>11.53599481482707</v>
       </c>
       <c r="E190">
-        <v>10.48592550669628</v>
+        <v>10.3742630559508</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>12.04606570838055</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>13.11626451314923</v>
+        <v>11.76751501692625</v>
       </c>
       <c r="C191">
-        <v>7.588721088844601</v>
+        <v>6.329848350772266</v>
       </c>
       <c r="D191">
-        <v>9.037193664353964</v>
+        <v>11.58574036624231</v>
       </c>
       <c r="E191">
-        <v>10.53452182228365</v>
+        <v>10.40478759524962</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>12.0904456372057</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>13.16368069500909</v>
+        <v>11.80158449387296</v>
       </c>
       <c r="C192">
-        <v>7.607134131533583</v>
+        <v>6.337919871967478</v>
       </c>
       <c r="D192">
-        <v>9.071948773288407</v>
+        <v>11.63537243153141</v>
       </c>
       <c r="E192">
-        <v>10.5830380046539</v>
+        <v>10.43503949417983</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>12.1345494918504</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>13.2107116842325</v>
+        <v>11.83541892934532</v>
       </c>
       <c r="C193">
-        <v>7.625260245933112</v>
+        <v>6.346019417620385</v>
       </c>
       <c r="D193">
-        <v>9.106477911191316</v>
+        <v>11.68489324255137</v>
       </c>
       <c r="E193">
-        <v>10.63147575346833</v>
+        <v>10.46502139040786</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>12.17837980387744</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>13.25736064687642</v>
+        <v>11.86902330146215</v>
       </c>
       <c r="C194">
-        <v>7.643102624051767</v>
+        <v>6.354149073798558</v>
       </c>
       <c r="D194">
-        <v>9.140782875791583</v>
+        <v>11.73430501467796</v>
       </c>
       <c r="E194">
-        <v>10.67983675773793</v>
+        <v>10.49473590693576</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>12.22193909095992</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>13.30363072522673</v>
+        <v>11.90240251309619</v>
       </c>
       <c r="C195">
-        <v>7.660664424109315</v>
+        <v>6.362310859978236</v>
       </c>
       <c r="D195">
-        <v>9.174865451549085</v>
+        <v>11.783609947353</v>
       </c>
       <c r="E195">
-        <v>10.728122696593</v>
+        <v>10.52418565060536</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>12.26522985655642</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>13.34952503719893</v>
+        <v>11.93556139322198</v>
       </c>
       <c r="C196">
-        <v>7.677948769907104</v>
+        <v>6.370506729952073</v>
       </c>
       <c r="D196">
-        <v>9.208727409497097</v>
+        <v>11.83281022436554</v>
       </c>
       <c r="E196">
-        <v>10.77633523860588</v>
+        <v>10.55337321113852</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>12.30825459000456</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>13.39504667727693</v>
+        <v>11.96850469810088</v>
       </c>
       <c r="C197">
-        <v>7.694958751804318</v>
+        <v>6.378738594728752</v>
       </c>
       <c r="D197">
-        <v>9.242370507027243</v>
+        <v>11.88190801299969</v>
       </c>
       <c r="E197">
-        <v>10.82447604192684</v>
+        <v>10.58230116275315</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>12.3510157655314</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>13.44019871502052</v>
+        <v>12.00123711247898</v>
       </c>
       <c r="C198">
-        <v>7.71169742647719</v>
+        <v>6.387008307989285</v>
       </c>
       <c r="D198">
-        <v>9.275796488345485</v>
+        <v>11.930905465098</v>
       </c>
       <c r="E198">
-        <v>10.87254675500251</v>
+        <v>10.61097206131416</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>12.39351584325446</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>13.48498419632113</v>
+        <v>12.03376325084871</v>
       </c>
       <c r="C199">
-        <v>7.728167817189423</v>
+        <v>6.395317660632751</v>
       </c>
       <c r="D199">
-        <v>9.309007083946137</v>
+        <v>11.97980471758757</v>
       </c>
       <c r="E199">
-        <v>10.92054901587579</v>
+        <v>10.6393884457402</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>12.43575726667093</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>13.52940614230279</v>
+        <v>12.06608765863716</v>
       </c>
       <c r="C200">
-        <v>7.74437291434315</v>
+        <v>6.40366840513318</v>
       </c>
       <c r="D200">
-        <v>9.342004011052756</v>
+        <v>12.02860789114723</v>
       </c>
       <c r="E200">
-        <v>10.96848445248842</v>
+        <v>10.66755283769976</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>12.47774246343124</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>13.57346754975384</v>
+        <v>12.09821481334222</v>
       </c>
       <c r="C201">
-        <v>7.760315675185938</v>
+        <v>6.412062246633659</v>
       </c>
       <c r="D201">
-        <v>9.374788973474258</v>
+        <v>12.07731709148047</v>
       </c>
       <c r="E201">
-        <v>11.016354683177</v>
+        <v>10.69546773999468</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>12.51947384811676</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>13.61717139123287</v>
+        <v>12.13014912588634</v>
       </c>
       <c r="C202">
-        <v>7.775999024554548</v>
+        <v>6.420500842623691</v>
       </c>
       <c r="D202">
-        <v>9.407363661542179</v>
+        <v>12.12593440995512</v>
       </c>
       <c r="E202">
-        <v>11.06416131614093</v>
+        <v>10.7231356381283</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>12.56095381646036</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>13.66052061442369</v>
+        <v>12.16189494152266</v>
       </c>
       <c r="C203">
-        <v>7.791425854835055</v>
+        <v>6.4289858021526</v>
       </c>
       <c r="D203">
-        <v>9.439729752421464</v>
+        <v>12.17446192227775</v>
       </c>
       <c r="E203">
-        <v>11.11190594979009</v>
+        <v>10.75055899868023</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>12.60218474752503</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>13.70351814302265</v>
+        <v>12.19345654134837</v>
       </c>
       <c r="C204">
-        <v>7.80659902622467</v>
+        <v>6.437518703916274</v>
       </c>
       <c r="D204">
-        <v>9.471888909791911</v>
+        <v>12.22290168965839</v>
       </c>
       <c r="E204">
-        <v>11.15959017325463</v>
+        <v>10.7777402694942</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>12.64316900581448</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>13.746166875801</v>
+        <v>12.22483814313251</v>
       </c>
       <c r="C205">
-        <v>7.821521367245992</v>
+        <v>6.44610108591202</v>
       </c>
       <c r="D205">
-        <v>9.503842784196888</v>
+        <v>12.2712557591895</v>
       </c>
       <c r="E205">
-        <v>11.20721556572275</v>
+        <v>10.80468188034672</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>12.68390894093662</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>13.78846968738111</v>
+        <v>12.25604390267399</v>
       </c>
       <c r="C206">
-        <v>7.836195674619665</v>
+        <v>6.454734438130823</v>
       </c>
       <c r="D206">
-        <v>9.535593012932464</v>
+        <v>12.31952616322046</v>
       </c>
       <c r="E206">
-        <v>11.254783696976</v>
+        <v>10.83138624122918</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>12.7244068818098</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>13.83042942791626</v>
+        <v>12.28707791480057</v>
       </c>
       <c r="C207">
-        <v>7.850624713878371</v>
+        <v>6.4634202240561</v>
       </c>
       <c r="D207">
-        <v>9.567141220086192</v>
+        <v>12.36771492004086</v>
       </c>
       <c r="E207">
-        <v>11.30229612780106</v>
+        <v>10.85785574392074</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>12.7646651417472</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13.87204892308608</v>
+        <v>12.31794421433015</v>
       </c>
       <c r="C208">
-        <v>7.864811219461086</v>
+        <v>6.472159875429204</v>
       </c>
       <c r="D208">
-        <v>9.59848901674995</v>
+        <v>12.41582403398762</v>
       </c>
       <c r="E208">
-        <v>11.34975440939147</v>
+        <v>10.88409276097201</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>12.80468602147703</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>13.91333097453341</v>
+        <v>12.34864677789191</v>
       </c>
       <c r="C209">
-        <v>7.878757894971741</v>
+        <v>6.480954788588558</v>
       </c>
       <c r="D209">
-        <v>9.629638000840202</v>
+        <v>12.46385549553308</v>
       </c>
       <c r="E209">
-        <v>11.39716008389097</v>
+        <v>10.91009964459594</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>12.84447180003406</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>13.95427835935969</v>
+        <v>12.37918952466225</v>
       </c>
       <c r="C210">
-        <v>7.892467413619104</v>
+        <v>6.489806320114771</v>
       </c>
       <c r="D210">
-        <v>9.660589757387431</v>
+        <v>12.51181128148556</v>
       </c>
       <c r="E210">
-        <v>11.4445146843991</v>
+        <v>10.93587872738647</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>12.88402474080788</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>13.99489383113609</v>
+        <v>12.40957631594916</v>
       </c>
       <c r="C211">
-        <v>7.905942418267778</v>
+        <v>6.498715810817365</v>
       </c>
       <c r="D211">
-        <v>9.691345858453587</v>
+        <v>12.55969335525783</v>
       </c>
       <c r="E211">
-        <v>11.49181973505498</v>
+        <v>10.96143232470135</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>12.92334709154015</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>14.03518011878731</v>
+        <v>12.43981095925493</v>
       </c>
       <c r="C212">
-        <v>7.91918552190606</v>
+        <v>6.507684570368384</v>
       </c>
       <c r="D212">
-        <v>9.7219078632303</v>
+        <v>12.60750366694922</v>
       </c>
       <c r="E212">
-        <v>11.53907675115941</v>
+        <v>10.98676273126126</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>12.9624410826349</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>14.07513992721739</v>
+        <v>12.46989720772248</v>
       </c>
       <c r="C213">
-        <v>7.932199307841563</v>
+        <v>6.516713876716476</v>
       </c>
       <c r="D213">
-        <v>9.752277318191311</v>
+        <v>12.65524415349511</v>
       </c>
       <c r="E213">
-        <v>11.58628723938273</v>
+        <v>11.01187222005047</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>13.00130892653963</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>14.11477593773498</v>
+        <v>12.49983876044118</v>
       </c>
       <c r="C214">
-        <v>7.944986329967397</v>
+        <v>6.525804986410173</v>
       </c>
       <c r="D214">
-        <v>9.782455757010089</v>
+        <v>12.70291673888645</v>
       </c>
       <c r="E214">
-        <v>11.63345269766549</v>
+        <v>11.03676304457356</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>13.03995281922067</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>14.15409080847208</v>
+        <v>12.52963926302358</v>
       </c>
       <c r="C215">
-        <v>7.957549113135848</v>
+        <v>6.53495913495825</v>
       </c>
       <c r="D215">
-        <v>9.81244470079687</v>
+        <v>12.75052333432693</v>
       </c>
       <c r="E215">
-        <v>11.68057461546934</v>
+        <v>11.06143744272125</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>13.07837494049033</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>14.19308717256887</v>
+        <v>12.55930231225466</v>
       </c>
       <c r="C216">
-        <v>7.969890153326616</v>
+        <v>6.54417753444103</v>
       </c>
       <c r="D216">
-        <v>9.842245658050096</v>
+        <v>12.79806583842708</v>
       </c>
       <c r="E216">
-        <v>11.72765447390937</v>
+        <v>11.08589763036838</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>13.11657745182917</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>14.23176763976988</v>
+        <v>12.58883145412826</v>
       </c>
       <c r="C217">
-        <v>7.982011918056597</v>
+        <v>6.553461372145875</v>
       </c>
       <c r="D217">
-        <v>9.871860124806432</v>
+        <v>12.84554613737872</v>
       </c>
       <c r="E217">
-        <v>11.7746937457436</v>
+        <v>11.11014580135415</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>13.15456249794405</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>14.27013479828082</v>
+        <v>12.61823018284695</v>
       </c>
       <c r="C218">
-        <v>7.993916846581469</v>
+        <v>6.562811821993934</v>
       </c>
       <c r="D218">
-        <v>9.901289584754412</v>
+        <v>12.89296610515453</v>
       </c>
       <c r="E218">
-        <v>11.8216938955783</v>
+        <v>11.13418413052309</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>13.19233220754654</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>14.30819121155483</v>
+        <v>12.64750194666318</v>
       </c>
       <c r="C219">
-        <v>8.005607350157446</v>
+        <v>6.572230038643661</v>
       </c>
       <c r="D219">
-        <v>9.930535509137835</v>
+        <v>12.94032760360518</v>
       </c>
       <c r="E219">
-        <v>11.8686563800176</v>
+        <v>11.15801477672749</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>13.2298886914049</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>14.34593941963818</v>
+        <v>12.67665014631395</v>
       </c>
       <c r="C220">
-        <v>8.017085812360241</v>
+        <v>6.581717154575283</v>
       </c>
       <c r="D220">
-        <v>9.959599356940792</v>
+        <v>12.98763248267926</v>
       </c>
       <c r="E220">
-        <v>11.9155826476427</v>
+        <v>11.18163987670731</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>13.26723404327142</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>14.38338194003294</v>
+        <v>12.70567813545582</v>
       </c>
       <c r="C221">
-        <v>8.028354589448323</v>
+        <v>6.59127428793627</v>
       </c>
       <c r="D221">
-        <v>9.988482575145662</v>
+        <v>13.03488258052528</v>
       </c>
       <c r="E221">
-        <v>11.96247413922214</v>
+        <v>11.20506154626184</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>13.30437034058828</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>14.42052126871173</v>
+        <v>12.73458922114563</v>
       </c>
       <c r="C222">
-        <v>8.039416010470568</v>
+        <v>6.600902545495971</v>
       </c>
       <c r="D222">
-        <v>10.01718659858392</v>
+        <v>13.08207972379404</v>
       </c>
       <c r="E222">
-        <v>12.00933228781656</v>
+        <v>11.22828188219569</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>13.34129964447382</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>14.4573598772569</v>
+        <v>12.76338666776617</v>
       </c>
       <c r="C223">
-        <v>8.050272377653792</v>
+        <v>6.610603018334474</v>
       </c>
       <c r="D223">
-        <v>10.04571284991462</v>
+        <v>13.12922572770997</v>
       </c>
       <c r="E223">
-        <v>12.05615851885098</v>
+        <v>11.25130296390331</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>13.37802399812938</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>14.49390021525917</v>
+        <v>12.79207369556577</v>
       </c>
       <c r="C224">
-        <v>8.060925966703701</v>
+        <v>6.620376777881984</v>
       </c>
       <c r="D224">
-        <v>10.07406273988969</v>
+        <v>13.17632239619292</v>
       </c>
       <c r="E224">
-        <v>12.10295425025575</v>
+        <v>11.27412684960544</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>13.41454542841257</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>14.53014471040804</v>
+        <v>12.82065348030724</v>
       </c>
       <c r="C225">
-        <v>8.071379027328492</v>
+        <v>6.630224891603028</v>
       </c>
       <c r="D225">
-        <v>10.10223766791056</v>
+        <v>13.22337152216647</v>
       </c>
       <c r="E225">
-        <v>12.1497208925722</v>
+        <v>11.29675557762087</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>13.45086594670173</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>14.56609576810158</v>
+        <v>12.84912915729439</v>
       </c>
       <c r="C226">
-        <v>8.081633782962317</v>
+        <v>6.64014841364297</v>
       </c>
       <c r="D226">
-        <v>10.13023902116962</v>
+        <v>13.27037488763357</v>
       </c>
       <c r="E226">
-        <v>12.19645984906188</v>
+        <v>11.31919116710602</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>13.48698754655812</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>14.60175577140221</v>
+        <v>12.87750382087188</v>
       </c>
       <c r="C227">
-        <v>8.091692431467443</v>
+        <v>6.650148384872827</v>
       </c>
       <c r="D227">
-        <v>10.15806817524272</v>
+        <v>13.31733426373169</v>
       </c>
       <c r="E227">
-        <v>12.24317251580981</v>
+        <v>11.34143561915652</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>13.52291220542944</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>14.63712708163362</v>
+        <v>12.90578052466761</v>
       </c>
       <c r="C228">
-        <v>8.10155714529464</v>
+        <v>6.660225836652166</v>
       </c>
       <c r="D228">
-        <v>10.18572649418199</v>
+        <v>13.36425141112801</v>
       </c>
       <c r="E228">
-        <v>12.28986028182827</v>
+        <v>11.36349091443434</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>13.55864188483433</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>14.67221203845282</v>
+        <v>12.93396228186769</v>
       </c>
       <c r="C229">
-        <v>8.111230071753115</v>
+        <v>6.67038179480579</v>
       </c>
       <c r="D229">
-        <v>10.21321533089798</v>
+        <v>13.41112808004067</v>
       </c>
       <c r="E229">
-        <v>12.33652452919709</v>
+        <v>11.38535901426553</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>13.5941785299192</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>14.70701295985637</v>
+        <v>12.9620520688693</v>
       </c>
       <c r="C230">
-        <v>8.120713333370635</v>
+        <v>6.680617276181728</v>
       </c>
       <c r="D230">
-        <v>10.24053602651096</v>
+        <v>13.4579660103331</v>
       </c>
       <c r="E230">
-        <v>12.38316663313463</v>
+        <v>11.40704186089128</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>13.62952406934988</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>14.74153214243201</v>
+        <v>12.99005282395749</v>
       </c>
       <c r="C231">
-        <v>8.130009028112228</v>
+        <v>6.69093328613117</v>
       </c>
       <c r="D231">
-        <v>10.26768991097419</v>
+        <v>13.50476693181424</v>
       </c>
       <c r="E231">
-        <v>12.42978796211082</v>
+        <v>11.42854137877171</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>13.66468041590332</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14.77577186181042</v>
+        <v>13.01796744656565</v>
       </c>
       <c r="C232">
-        <v>8.139119229499919</v>
+        <v>6.701330828798532</v>
       </c>
       <c r="D232">
-        <v>10.29467830306264</v>
+        <v>13.55153256435389</v>
       </c>
       <c r="E232">
-        <v>12.47638987798873</v>
+        <v>11.44985947215837</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>13.69964946670069</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>14.80973437275036</v>
+        <v>13.04579880135754</v>
       </c>
       <c r="C233">
-        <v>8.148045987041456</v>
+        <v>6.711810901417769</v>
       </c>
       <c r="D233">
-        <v>10.32150251049967</v>
+        <v>13.59826461792168</v>
       </c>
       <c r="E233">
-        <v>12.52297373608479</v>
+        <v>11.47099802646117</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>13.73443310253304</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>14.84342190870727</v>
+        <v>13.07354971785655</v>
       </c>
       <c r="C234">
-        <v>8.156791326658537</v>
+        <v>6.722374494692515</v>
       </c>
       <c r="D234">
-        <v>10.34816382988384</v>
+        <v>13.64496479284795</v>
       </c>
       <c r="E234">
-        <v>12.56954088528858</v>
+        <v>11.49195890832</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>13.76903318851896</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>14.87683668259965</v>
+        <v>13.10122299032096</v>
       </c>
       <c r="C235">
-        <v>8.165357250747146</v>
+        <v>6.733022594421402</v>
       </c>
       <c r="D235">
-        <v>10.37466354691384</v>
+        <v>13.69163478001941</v>
       </c>
       <c r="E235">
-        <v>12.61609266819956</v>
+        <v>11.51274396743956</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>13.80345157448717</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>14.90998088707694</v>
+        <v>13.12882137770151</v>
       </c>
       <c r="C236">
-        <v>8.173745738046467</v>
+        <v>6.743756185463893</v>
       </c>
       <c r="D236">
-        <v>10.4010029364075</v>
+        <v>13.7382762608794</v>
       </c>
       <c r="E236">
-        <v>12.66263042118164</v>
+        <v>11.53335503324316</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>13.83769009438296</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>14.94285669421232</v>
+        <v>13.1563476077109</v>
       </c>
       <c r="C237">
-        <v>8.181958744653802</v>
+        <v>6.754576249112554</v>
       </c>
       <c r="D237">
-        <v>10.4271832624147</v>
+        <v>13.78489090761992</v>
       </c>
       <c r="E237">
-        <v>12.70915547449006</v>
+        <v>11.55379391700643</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>13.87175056669931</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>14.97546625596022</v>
+        <v>13.18380437505394</v>
       </c>
       <c r="C238">
-        <v>8.189998203993147</v>
+        <v>6.765483760245651</v>
       </c>
       <c r="D238">
-        <v>10.45320577833641</v>
+        <v>13.83148038346216</v>
       </c>
       <c r="E238">
-        <v>12.75566915239859</v>
+        <v>11.57406241172328</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>13.905634794766</v>
       </c>
     </row>
   </sheetData>
